--- a/ProcessedData/conf_svm_transcript_1.xlsx
+++ b/ProcessedData/conf_svm_transcript_1.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,19 +405,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.5853997933856088</v>
+        <v>-0.4300257784754401</v>
       </c>
       <c r="C2">
-        <v>0.1641056019508229</v>
+        <v>-0.4543352350467467</v>
       </c>
       <c r="D2">
-        <v>-0.4294807802075163</v>
+        <v>-0.2700318228578421</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -434,19 +425,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.3778878601529045</v>
+        <v>-0.1309825895464297</v>
       </c>
       <c r="C3">
-        <v>-0.06271944170035931</v>
+        <v>-0.3531656692489128</v>
       </c>
       <c r="D3">
-        <v>-0.6875547833612696</v>
+        <v>-0.5597132507214345</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -454,19 +445,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.7969722424724386</v>
+        <v>-0.5358152457585444</v>
       </c>
       <c r="C4">
-        <v>0.6278152942068372</v>
+        <v>-0.6181251413209881</v>
       </c>
       <c r="D4">
-        <v>-0.8995812814224207</v>
+        <v>-0.2210394715302332</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -474,19 +465,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.315784427953144</v>
+        <v>-1.003748992856847</v>
       </c>
       <c r="C5">
-        <v>2.265018290630601</v>
+        <v>-1.216524897170471</v>
       </c>
       <c r="D5">
-        <v>-2.993444824143141</v>
+        <v>0.01605898233668723</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -494,19 +485,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.6994653418297161</v>
+        <v>-0.5428248019325992</v>
       </c>
       <c r="C6">
-        <v>0.693122257540201</v>
+        <v>-0.6176863283247918</v>
       </c>
       <c r="D6">
-        <v>-1.170815623831424</v>
+        <v>-0.2543571673688576</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -514,19 +505,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.5393975384839546</v>
+        <v>-0.3979958811245115</v>
       </c>
       <c r="C7">
-        <v>0.368836064073127</v>
+        <v>-0.4184998349706808</v>
       </c>
       <c r="D7">
-        <v>-0.5713632466280354</v>
+        <v>-0.3686731212405188</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -534,19 +525,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.4463728773067636</v>
+        <v>-0.1648603506578403</v>
       </c>
       <c r="C8">
-        <v>0.1127273505590443</v>
+        <v>-0.3967111079149171</v>
       </c>
       <c r="D8">
-        <v>-0.8412446949711676</v>
+        <v>-0.5536160615622066</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -554,19 +545,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.3021793772455597</v>
+        <v>-0.3029622095920329</v>
       </c>
       <c r="C9">
-        <v>0.113051169878277</v>
+        <v>-0.7213885821761927</v>
       </c>
       <c r="D9">
-        <v>-1.704290083636565</v>
+        <v>-0.3660297293095072</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -574,19 +565,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.9347526798357804</v>
+        <v>-0.5654827149949779</v>
       </c>
       <c r="C10">
-        <v>0.93156958407173</v>
+        <v>-0.6471287891544487</v>
       </c>
       <c r="D10">
-        <v>-1.13600837291655</v>
+        <v>-0.2511486359617191</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -594,19 +585,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.7945401141340809</v>
+        <v>-0.4539920102923198</v>
       </c>
       <c r="C11">
-        <v>0.2030657734193851</v>
+        <v>-0.5249520300738396</v>
       </c>
       <c r="D11">
-        <v>-0.2560756958383419</v>
+        <v>-0.1996459923201113</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -614,13 +605,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.7063658516324991</v>
+        <v>-0.4453444893387176</v>
       </c>
       <c r="C12">
-        <v>0.5420897772860483</v>
+        <v>-0.3570605923811504</v>
       </c>
       <c r="D12">
-        <v>-0.49898412122198</v>
+        <v>-0.3819863132668683</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -634,19 +625,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.5285548978913945</v>
+        <v>-0.2055136639915331</v>
       </c>
       <c r="C13">
-        <v>0.3232635012703285</v>
+        <v>-0.4489656343141223</v>
       </c>
       <c r="D13">
-        <v>-1.025672588903045</v>
+        <v>-0.5462994345711328</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -654,19 +645,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.5948689351048007</v>
+        <v>-0.3579921503672777</v>
       </c>
       <c r="C14">
-        <v>0.7044187183588806</v>
+        <v>-0.7290514292810322</v>
       </c>
       <c r="D14">
-        <v>-1.852568047636193</v>
+        <v>-0.4258676339666952</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -674,19 +665,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.5213314321379088</v>
+        <v>-0.4113710451485469</v>
       </c>
       <c r="C15">
-        <v>0.6744809051083684</v>
+        <v>-0.8607339859074066</v>
       </c>
       <c r="D15">
-        <v>-2.196097800788238</v>
+        <v>-0.3465187239999775</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -694,19 +685,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.9094139696988375</v>
+        <v>-0.538949396275436</v>
       </c>
       <c r="C16">
-        <v>0.9560317729595258</v>
+        <v>-0.4687462104348138</v>
       </c>
       <c r="D16">
-        <v>-0.8253442643000978</v>
+        <v>-0.3250614035356507</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -714,19 +705,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.4052818670144481</v>
+        <v>-0.1445336939909939</v>
       </c>
       <c r="C17">
-        <v>0.007459275203402116</v>
+        <v>-0.3705838447153146</v>
       </c>
       <c r="D17">
-        <v>-0.7490307480052288</v>
+        <v>-0.5572743750577434</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -734,19 +725,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.6305813798723834</v>
+        <v>-0.5118811226229313</v>
       </c>
       <c r="C18">
-        <v>0.7168198468880258</v>
+        <v>-0.6254491626938721</v>
       </c>
       <c r="D18">
-        <v>-1.222870865065363</v>
+        <v>-0.2916817254805799</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -754,19 +745,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.5128054422507988</v>
+        <v>-0.4122822490146104</v>
       </c>
       <c r="C19">
-        <v>0.3462585793595768</v>
+        <v>-0.4611831666629518</v>
       </c>
       <c r="D19">
-        <v>-0.6907097638799918</v>
+        <v>-0.3435231090918003</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -774,19 +765,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.4135711216661239</v>
+        <v>-0.163593504787962</v>
       </c>
       <c r="C20">
-        <v>0.05510367733947114</v>
+        <v>-0.4055945690861783</v>
       </c>
       <c r="D20">
-        <v>-0.8523926803468724</v>
+        <v>-0.5422203999821886</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -794,19 +785,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.6661364177982938</v>
+        <v>-0.5474936907948211</v>
       </c>
       <c r="C21">
-        <v>1.000676000217299</v>
+        <v>-0.4039431582213546</v>
       </c>
       <c r="D21">
-        <v>-0.0964606784441347</v>
+        <v>-0.3411109734645443</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -814,19 +805,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.6139736873146685</v>
+        <v>-0.3524834440148739</v>
       </c>
       <c r="C22">
-        <v>0.7269530331265731</v>
+        <v>-0.7114588803765701</v>
       </c>
       <c r="D22">
-        <v>-1.810682079938509</v>
+        <v>-0.4384827333785587</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -834,19 +825,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.3998741182353521</v>
+        <v>-0.1568179525656799</v>
       </c>
       <c r="C23">
-        <v>0.02001431888759042</v>
+        <v>-0.3968854813529774</v>
       </c>
       <c r="D23">
-        <v>-0.8216546980248928</v>
+        <v>-0.5434398378140343</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -854,19 +845,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.4492543831793433</v>
+        <v>-0.1962044200294943</v>
       </c>
       <c r="C24">
-        <v>0.1729267963793016</v>
+        <v>-0.4580234689234437</v>
       </c>
       <c r="D24">
-        <v>-1.017230577332475</v>
+        <v>-0.5247275492429427</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -874,19 +865,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.6088029370675588</v>
+        <v>-0.4283430468884846</v>
       </c>
       <c r="C25">
-        <v>0.5524305431295231</v>
+        <v>-0.4323969020294599</v>
       </c>
       <c r="D25">
-        <v>-0.6002719993858807</v>
+        <v>-0.3718744271979203</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -894,19 +885,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.8659699339811742</v>
+        <v>-0.8373553768593265</v>
       </c>
       <c r="C26">
-        <v>1.898226314391473</v>
+        <v>-0.8265434855338971</v>
       </c>
       <c r="D26">
-        <v>-1.23366758928542</v>
+        <v>-0.1615323003890771</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -914,19 +905,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.3836508718980639</v>
+        <v>-0.1936707282897377</v>
       </c>
       <c r="C27">
-        <v>0.05767944994015534</v>
+        <v>-0.475790391265966</v>
       </c>
       <c r="D27">
-        <v>-1.039526548083884</v>
+        <v>-0.501936226082907</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -934,19 +925,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.4766483900408869</v>
+        <v>-0.2097555244740586</v>
       </c>
       <c r="C28">
-        <v>0.243105513283063</v>
+        <v>-0.4754416443898455</v>
       </c>
       <c r="D28">
-        <v>-1.078706541976434</v>
+        <v>-0.5222886735792515</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -954,19 +945,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.4081633728870279</v>
+        <v>-0.175877763362648</v>
       </c>
       <c r="C29">
-        <v>0.06765872102365944</v>
+        <v>-0.4318962057238411</v>
       </c>
       <c r="D29">
-        <v>-0.9250166303665364</v>
+        <v>-0.5283858627384795</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -974,19 +965,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.549168076189997</v>
+        <v>-1.042327401642716</v>
       </c>
       <c r="C30">
-        <v>2.275202849951328</v>
+        <v>-1.478073445119144</v>
       </c>
       <c r="D30">
-        <v>-2.927238641720362</v>
+        <v>0.1586873767941362</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -994,13 +985,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.5499450773323538</v>
+        <v>-0.3678929988922788</v>
       </c>
       <c r="C31">
-        <v>0.3446746842845735</v>
+        <v>-0.3355562736024991</v>
       </c>
       <c r="D31">
-        <v>-0.3040979588992881</v>
+        <v>-0.4063833334199117</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1014,19 +1005,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.5368441525430703</v>
+        <v>-0.2245734747885011</v>
       </c>
       <c r="C32">
-        <v>0.3709079034063976</v>
+        <v>-0.4839763586849861</v>
       </c>
       <c r="D32">
-        <v>-1.129034521244689</v>
+        <v>-0.5312454594955781</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1034,19 +1025,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.5344363626481788</v>
+        <v>-0.4476835148980146</v>
       </c>
       <c r="C33">
-        <v>0.4216956903750033</v>
+        <v>-0.5650646175885052</v>
       </c>
       <c r="D33">
-        <v>-1.070917282294428</v>
+        <v>-0.3077244027319594</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1054,19 +1045,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.6464201799892448</v>
+        <v>-0.2787778925667582</v>
       </c>
       <c r="C34">
-        <v>0.6516227710214433</v>
+        <v>-0.553649060550593</v>
       </c>
       <c r="D34">
-        <v>-1.374938379820526</v>
+        <v>-0.5214899568408132</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1074,19 +1065,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.4380836226550878</v>
+        <v>-0.1458005398608722</v>
       </c>
       <c r="C35">
-        <v>0.06508294842297524</v>
+        <v>-0.3617003835440534</v>
       </c>
       <c r="D35">
-        <v>-0.7378827626295241</v>
+        <v>-0.5686700366377613</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1094,19 +1085,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.8162480898590538</v>
+        <v>-0.7288941726570991</v>
       </c>
       <c r="C36">
-        <v>1.384885702819473</v>
+        <v>-1.042002636624186</v>
       </c>
       <c r="D36">
-        <v>-2.580807081935042</v>
+        <v>-0.1429776186631266</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1114,19 +1105,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.3915848635836763</v>
+        <v>-0.1377581417687118</v>
       </c>
       <c r="C37">
-        <v>-0.0276300832484786</v>
+        <v>-0.3618747569821137</v>
       </c>
       <c r="D37">
-        <v>-0.7182927656832492</v>
+        <v>-0.558493812889589</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1134,19 +1125,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.4712406412617909</v>
+        <v>-0.2220397830487446</v>
       </c>
       <c r="C38">
-        <v>0.2556605569672513</v>
+        <v>-0.5017432810275083</v>
       </c>
       <c r="D38">
-        <v>-1.151330491996098</v>
+        <v>-0.5084541363355424</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1154,19 +1145,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.5999214209178333</v>
+        <v>-0.2707354944745978</v>
       </c>
       <c r="C39">
-        <v>0.5589097393499894</v>
+        <v>-0.5538234339886532</v>
       </c>
       <c r="D39">
-        <v>-1.355348382874251</v>
+        <v>-0.5113137330926409</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1174,19 +1165,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.5177394003332024</v>
+        <v>-0.230082181140905</v>
       </c>
       <c r="C40">
-        <v>0.3483735886387052</v>
+        <v>-0.5015689075894481</v>
       </c>
       <c r="D40">
-        <v>-1.170920488942373</v>
+        <v>-0.5186303600837147</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1194,19 +1185,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.5963504862065128</v>
+        <v>-0.509277096371845</v>
       </c>
       <c r="C41">
-        <v>0.7061417093449027</v>
+        <v>-0.542213753195303</v>
       </c>
       <c r="D41">
-        <v>-0.8068272222618632</v>
+        <v>-0.3034598464795349</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1214,19 +1205,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.7303637950330566</v>
+        <v>-0.7901358963572902</v>
       </c>
       <c r="C42">
-        <v>1.008241696311813</v>
+        <v>-0.9080314017695803</v>
       </c>
       <c r="D42">
-        <v>-2.165824594717664</v>
+        <v>-0.05215066472264829</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1234,19 +1225,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.3371521128266524</v>
+        <v>-0.1856283301975773</v>
       </c>
       <c r="C43">
-        <v>-0.0350335817312985</v>
+        <v>-0.4759647647040263</v>
       </c>
       <c r="D43">
-        <v>-1.01993655113761</v>
+        <v>-0.4917600023347347</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1254,19 +1245,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.8052580585073252</v>
+        <v>-0.5300483251540565</v>
       </c>
       <c r="C44">
-        <v>1.016533218626618</v>
+        <v>-0.6483457712995869</v>
       </c>
       <c r="D44">
-        <v>-1.450195009375558</v>
+        <v>-0.3295862478909097</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1274,19 +1265,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.8405670591103769</v>
+        <v>-0.7440943508941016</v>
       </c>
       <c r="C45">
-        <v>1.156493453131515</v>
+        <v>-0.909404797628137</v>
       </c>
       <c r="D45">
-        <v>-2.203001902795807</v>
+        <v>-0.1355860433114825</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1294,19 +1285,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.8911433099197938</v>
+        <v>-0.4953436880716844</v>
       </c>
       <c r="C46">
-        <v>0.5371709347669987</v>
+        <v>-0.4891334472299343</v>
       </c>
       <c r="D46">
-        <v>-0.4403627927538382</v>
+        <v>-0.2341368728199391</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1314,19 +1305,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.4650310387835788</v>
+        <v>-0.3327980489518935</v>
       </c>
       <c r="C47">
-        <v>0.1124439255664276</v>
+        <v>-0.3420795530535212</v>
       </c>
       <c r="D47">
-        <v>-0.3713052110434908</v>
+        <v>-0.3956599521092352</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1334,19 +1325,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.3832956089320005</v>
+        <v>-0.1186983309717437</v>
       </c>
       <c r="C48">
-        <v>-0.07527448538454762</v>
+        <v>-0.32686403261125</v>
       </c>
       <c r="D48">
-        <v>-0.6149308333416057</v>
+        <v>-0.5735477879651436</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1354,19 +1345,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.4932268993442385</v>
+        <v>-0.2478751460679947</v>
       </c>
       <c r="C49">
-        <v>0.3383943175552011</v>
+        <v>-0.5454630931315729</v>
       </c>
       <c r="D49">
-        <v>-1.285430406659721</v>
+        <v>-0.4921807234281421</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1374,19 +1365,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.6949634936870508</v>
+        <v>-0.5399132214484315</v>
       </c>
       <c r="C50">
-        <v>0.9230144715852489</v>
+        <v>-0.5753189185973769</v>
       </c>
       <c r="D50">
-        <v>-0.955587633611982</v>
+        <v>-0.3104292646948513</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1394,19 +1385,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.5268597488676294</v>
+        <v>-0.3982575212866575</v>
       </c>
       <c r="C51">
-        <v>0.3381972324543001</v>
+        <v>-0.440649972694559</v>
       </c>
       <c r="D51">
-        <v>-0.6605698236234996</v>
+        <v>-0.3592944394488808</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1414,19 +1405,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.3778878601529045</v>
+        <v>-0.1309825895464297</v>
       </c>
       <c r="C52">
-        <v>-0.06271944170035931</v>
+        <v>-0.3531656692489128</v>
       </c>
       <c r="D52">
-        <v>-0.6875547833612696</v>
+        <v>-0.5597132507214345</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1434,19 +1425,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-1.113602412304707</v>
+        <v>-0.7624350610617825</v>
       </c>
       <c r="C53">
-        <v>1.6357711563861</v>
+        <v>-0.7590329362090271</v>
       </c>
       <c r="D53">
-        <v>-1.836323346391362</v>
+        <v>-0.2277718824545728</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1454,19 +1445,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.9442183435829694</v>
+        <v>-0.6276450894469643</v>
       </c>
       <c r="C54">
-        <v>1.422227014552806</v>
+        <v>-0.796230072275899</v>
       </c>
       <c r="D54">
-        <v>-1.935633543328636</v>
+        <v>-0.2890603391846986</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1474,19 +1465,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.3616646138156163</v>
+        <v>-0.1678353652704875</v>
       </c>
       <c r="C55">
-        <v>-0.0250543106477944</v>
+        <v>-0.4320705791619014</v>
       </c>
       <c r="D55">
-        <v>-0.9054266334202614</v>
+        <v>-0.5182096389903073</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1494,19 +1485,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.5779351628353857</v>
+        <v>-0.2449001314553475</v>
       </c>
       <c r="C56">
-        <v>0.4761759787620397</v>
+        <v>-0.5101036218845887</v>
       </c>
       <c r="D56">
-        <v>-1.221248468210628</v>
+        <v>-0.5275871460000413</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1514,19 +1505,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.7942249181665542</v>
+        <v>-0.6684914404490298</v>
       </c>
       <c r="C57">
-        <v>1.375535623813951</v>
+        <v>-0.6956847075357842</v>
       </c>
       <c r="D57">
-        <v>-1.157793454569038</v>
+        <v>-0.2506705109111237</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1534,19 +1525,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.7400701030622876</v>
+        <v>-0.4966475081660551</v>
       </c>
       <c r="C58">
-        <v>0.8636320715985455</v>
+        <v>-0.576535793997619</v>
       </c>
       <c r="D58">
-        <v>-1.166196396588341</v>
+        <v>-0.343496647016077</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1554,19 +1545,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.8779859385065552</v>
+        <v>-0.643466359733292</v>
       </c>
       <c r="C59">
-        <v>1.226659441955628</v>
+        <v>-0.7620394247585374</v>
       </c>
       <c r="D59">
-        <v>-1.794033008569133</v>
+        <v>-0.2451073506070697</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1574,19 +1565,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.3998741182353521</v>
+        <v>-0.1568179525656799</v>
       </c>
       <c r="C60">
-        <v>0.02001431888759042</v>
+        <v>-0.3968854813529774</v>
       </c>
       <c r="D60">
-        <v>-0.8216546980248928</v>
+        <v>-0.5434398378140343</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1594,19 +1585,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.4027556241079318</v>
+        <v>-0.1881620219373339</v>
       </c>
       <c r="C61">
-        <v>0.08021376470784775</v>
+        <v>-0.458197842361504</v>
       </c>
       <c r="D61">
-        <v>-0.9976405803862003</v>
+        <v>-0.5145513254947705</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1614,19 +1605,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.857245802394117</v>
+        <v>-0.7086904526087426</v>
       </c>
       <c r="C62">
-        <v>1.324658803996801</v>
+        <v>-0.8056772480934793</v>
       </c>
       <c r="D62">
-        <v>-1.663631965871367</v>
+        <v>-0.1856568433186189</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1634,19 +1625,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.8296792495190322</v>
+        <v>-0.5498243823461434</v>
       </c>
       <c r="C63">
-        <v>1.119161842417137</v>
+        <v>-0.6331147984320165</v>
       </c>
       <c r="D63">
-        <v>-1.333350720753759</v>
+        <v>-0.3315385039290959</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1654,19 +1645,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.975243694184901</v>
+        <v>-0.6815417918769854</v>
       </c>
       <c r="C64">
-        <v>1.479129869736485</v>
+        <v>-0.7634674596623126</v>
       </c>
       <c r="D64">
-        <v>-1.76160095889382</v>
+        <v>-0.2553769035781218</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1674,19 +1665,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.41897887044522</v>
+        <v>-0.1513092462132761</v>
       </c>
       <c r="C65">
-        <v>0.04254863365528283</v>
+        <v>-0.3792929324485154</v>
       </c>
       <c r="D65">
-        <v>-0.7797687303272085</v>
+        <v>-0.5560549372258977</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1694,19 +1685,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.4106896157935442</v>
+        <v>-0.132249435416308</v>
       </c>
       <c r="C66">
-        <v>-0.005095768480786189</v>
+        <v>-0.3442822080776517</v>
       </c>
       <c r="D66">
-        <v>-0.6764067979855649</v>
+        <v>-0.5711089123014524</v>
       </c>
       <c r="E66">
         <v>2</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1714,19 +1705,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.8054120421353659</v>
+        <v>-0.6019025755389207</v>
       </c>
       <c r="C67">
-        <v>0.5769607502821366</v>
+        <v>-0.4120891363127024</v>
       </c>
       <c r="D67">
-        <v>-0.5398765909307219</v>
+        <v>-0.2831214748055185</v>
       </c>
       <c r="E67">
         <v>2</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1734,19 +1725,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.6911013882335517</v>
+        <v>-0.5334009698083056</v>
       </c>
       <c r="C68">
-        <v>0.8996177891294488</v>
+        <v>-0.5730701900190769</v>
       </c>
       <c r="D68">
-        <v>-0.9645698898905404</v>
+        <v>-0.3128428530647231</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1754,19 +1745,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.4654776295166315</v>
+        <v>-0.1593516443054365</v>
       </c>
       <c r="C69">
-        <v>0.1352616653267367</v>
+        <v>-0.3791185590104552</v>
       </c>
       <c r="D69">
-        <v>-0.7993587272734833</v>
+        <v>-0.56623116097407</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1774,19 +1765,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.6999557613489091</v>
+        <v>-0.4739577879398423</v>
       </c>
       <c r="C70">
-        <v>0.8224559427378073</v>
+        <v>-0.4295061841279993</v>
       </c>
       <c r="D70">
-        <v>-0.5185549486378525</v>
+        <v>-0.3786989349880348</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1794,19 +1785,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-1.055679434748399</v>
+        <v>-0.626279099742969</v>
       </c>
       <c r="C71">
-        <v>0.989496572550407</v>
+        <v>-0.6581887039402237</v>
       </c>
       <c r="D71">
-        <v>-0.4756755866115562</v>
+        <v>-0.1554673399888365</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1814,19 +1805,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.41897887044522</v>
+        <v>-0.1513092462132761</v>
       </c>
       <c r="C72">
-        <v>0.04254863365528283</v>
+        <v>-0.3792929324485154</v>
       </c>
       <c r="D72">
-        <v>-0.7797687303272085</v>
+        <v>-0.5560549372258977</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1834,19 +1825,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.7331769291087689</v>
+        <v>-0.5064270545714619</v>
       </c>
       <c r="C73">
-        <v>0.8671883912612721</v>
+        <v>-0.6019725350282433</v>
       </c>
       <c r="D73">
-        <v>-1.242275060561296</v>
+        <v>-0.3305904129915493</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1854,19 +1845,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.942225637122696</v>
+        <v>-0.6479272445173032</v>
       </c>
       <c r="C74">
-        <v>1.170719497791824</v>
+        <v>-0.606547540222097</v>
       </c>
       <c r="D74">
-        <v>-1.259030101198904</v>
+        <v>-0.2832397510533182</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1874,19 +1865,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.5887506603935778</v>
+        <v>-0.2203316143059756</v>
       </c>
       <c r="C75">
-        <v>0.4510658913936632</v>
+        <v>-0.4575003486092629</v>
       </c>
       <c r="D75">
-        <v>-1.0760005681713</v>
+        <v>-0.5552562204874595</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1894,19 +1885,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.4106896157935442</v>
+        <v>-0.132249435416308</v>
       </c>
       <c r="C76">
-        <v>-0.005095768480786189</v>
+        <v>-0.3442822080776517</v>
       </c>
       <c r="D76">
-        <v>-0.6764067979855649</v>
+        <v>-0.5711089123014524</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1914,19 +1905,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.4404522737024587</v>
+        <v>-0.574671967885613</v>
       </c>
       <c r="C77">
-        <v>0.5500717409377748</v>
+        <v>-0.7408069230113716</v>
       </c>
       <c r="D77">
-        <v>-1.331719702017812</v>
+        <v>-0.1773637517420891</v>
       </c>
       <c r="E77">
         <v>2</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1934,19 +1925,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.6120067232981323</v>
+        <v>-0.4776233902171515</v>
       </c>
       <c r="C78">
-        <v>0.7180728959975493</v>
+        <v>-0.4018762189481555</v>
       </c>
       <c r="D78">
-        <v>-0.2823992461317694</v>
+        <v>-0.3577247818099877</v>
       </c>
       <c r="E78">
         <v>2</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1954,19 +1945,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.5964199347873687</v>
+        <v>-0.4881761827278615</v>
       </c>
       <c r="C79">
-        <v>0.4493159545021299</v>
+        <v>-0.5528614269546053</v>
       </c>
       <c r="D79">
-        <v>-1.022452981791027</v>
+        <v>-0.2758337877428981</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1974,19 +1965,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.9350783222488981</v>
+        <v>-0.7826633000072958</v>
       </c>
       <c r="C80">
-        <v>1.954363762891397</v>
+        <v>-0.6311795759950636</v>
       </c>
       <c r="D80">
-        <v>-0.592563966340832</v>
+        <v>-0.2560561223249922</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1994,19 +1985,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.482056138819983</v>
+        <v>-0.1974712658993726</v>
       </c>
       <c r="C81">
-        <v>0.2305504695988747</v>
+        <v>-0.4491400077521826</v>
       </c>
       <c r="D81">
-        <v>-1.00608259195677</v>
+        <v>-0.5361232108229605</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2014,19 +2005,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.3832956089320005</v>
+        <v>-0.1186983309717437</v>
       </c>
       <c r="C82">
-        <v>-0.07527448538454762</v>
+        <v>-0.32686403261125</v>
       </c>
       <c r="D82">
-        <v>-0.6149308333416057</v>
+        <v>-0.5735477879651436</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2034,19 +2025,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.4380836226550878</v>
+        <v>-0.1458005398608722</v>
       </c>
       <c r="C83">
-        <v>0.06508294842297524</v>
+        <v>-0.3617003835440534</v>
       </c>
       <c r="D83">
-        <v>-0.7378827626295241</v>
+        <v>-0.5686700366377613</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2054,19 +2045,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.7047672998382406</v>
+        <v>-0.5564443217656737</v>
       </c>
       <c r="C84">
-        <v>0.9824060501268947</v>
+        <v>-0.5810272296038308</v>
       </c>
       <c r="D84">
-        <v>-0.932786521520256</v>
+        <v>-0.3043024634482536</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2074,19 +2065,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.4492543831793433</v>
+        <v>-0.1962044200294943</v>
       </c>
       <c r="C85">
-        <v>0.1729267963793016</v>
+        <v>-0.4580234689234437</v>
       </c>
       <c r="D85">
-        <v>-1.017230577332475</v>
+        <v>-0.5247275492429427</v>
       </c>
       <c r="E85">
         <v>2</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2094,19 +2085,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.6103386781691957</v>
+        <v>-0.5502567222862258</v>
       </c>
       <c r="C86">
-        <v>0.8943728773901178</v>
+        <v>-0.4583377486902259</v>
       </c>
       <c r="D86">
-        <v>-0.2811852182761606</v>
+        <v>-0.3096583237943965</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2114,19 +2105,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.7546455062472985</v>
+        <v>-0.4564357117365092</v>
       </c>
       <c r="C87">
-        <v>0.6277260208484156</v>
+        <v>-0.4450704918638297</v>
       </c>
       <c r="D87">
-        <v>-0.7455600380422256</v>
+        <v>-0.3552122411116484</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2134,19 +2125,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.394466369456256</v>
+        <v>-0.1691022111403658</v>
       </c>
       <c r="C88">
-        <v>0.03256936257177873</v>
+        <v>-0.4231871179906402</v>
       </c>
       <c r="D88">
-        <v>-0.8942786480445567</v>
+        <v>-0.5296053005703252</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2154,19 +2145,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.3205736035233009</v>
+        <v>-0.1475087086036411</v>
       </c>
       <c r="C89">
-        <v>-0.1303223860034365</v>
+        <v>-0.4059433159622988</v>
       </c>
       <c r="D89">
-        <v>-0.8132126864543225</v>
+        <v>-0.5218679524858441</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2174,19 +2165,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.8247432690063656</v>
+        <v>-0.6169473476428037</v>
       </c>
       <c r="C90">
-        <v>1.27566463096249</v>
+        <v>-0.6876735578386022</v>
       </c>
       <c r="D90">
-        <v>-1.339737063595392</v>
+        <v>-0.285514312995704</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2194,19 +2185,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.4135711216661239</v>
+        <v>-0.163593504787962</v>
       </c>
       <c r="C91">
-        <v>0.05510367733947114</v>
+        <v>-0.4055945690861783</v>
       </c>
       <c r="D91">
-        <v>-0.8523926803468724</v>
+        <v>-0.5422203999821886</v>
       </c>
       <c r="E91">
         <v>2</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2214,19 +2205,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.4326758738759918</v>
+        <v>-0.1580847984355582</v>
       </c>
       <c r="C92">
-        <v>0.07763799210716354</v>
+        <v>-0.3880020201817163</v>
       </c>
       <c r="D92">
-        <v>-0.8105067126491881</v>
+        <v>-0.5548354993940521</v>
       </c>
       <c r="E92">
         <v>2</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2234,19 +2225,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.3969926123627724</v>
+        <v>-0.1254738831940259</v>
       </c>
       <c r="C93">
-        <v>-0.0401851269326669</v>
+        <v>-0.3355731203444509</v>
       </c>
       <c r="D93">
-        <v>-0.6456688156635852</v>
+        <v>-0.5723283501332981</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2254,19 +2245,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.6086493687191323</v>
+        <v>-0.5829859686599812</v>
       </c>
       <c r="C94">
-        <v>0.8661349866798482</v>
+        <v>-0.6686440158833253</v>
       </c>
       <c r="D94">
-        <v>-1.143598245589994</v>
+        <v>-0.2415982876766088</v>
       </c>
       <c r="E94">
         <v>2</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2274,19 +2265,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.6968684056996977</v>
+        <v>-0.4890820541973038</v>
       </c>
       <c r="C95">
-        <v>0.7934646851584224</v>
+        <v>-0.5484456287997156</v>
       </c>
       <c r="D95">
-        <v>-1.016297698464746</v>
+        <v>-0.3411336332338439</v>
       </c>
       <c r="E95">
         <v>3</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2294,19 +2285,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.53972565841565</v>
+        <v>-0.2559175441601552</v>
       </c>
       <c r="C96">
-        <v>0.4311073492266548</v>
+        <v>-0.5452887196935127</v>
       </c>
       <c r="D96">
-        <v>-1.305020403605996</v>
+        <v>-0.5023569471763143</v>
       </c>
       <c r="E96">
         <v>3</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2314,19 +2305,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-1.224910557704327</v>
+        <v>-0.6491068628266046</v>
       </c>
       <c r="C97">
-        <v>1.074305189048004</v>
+        <v>-0.7963306954892899</v>
       </c>
       <c r="D97">
-        <v>-0.892063129999733</v>
+        <v>-0.1077100872427518</v>
       </c>
       <c r="E97">
         <v>3</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2334,19 +2325,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.989696654183849</v>
+        <v>-0.6119732487119698</v>
       </c>
       <c r="C98">
-        <v>1.068021552242462</v>
+        <v>-0.6407351278793945</v>
       </c>
       <c r="D98">
-        <v>-1.139467973751951</v>
+        <v>-0.2219773168903754</v>
       </c>
       <c r="E98">
         <v>3</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2354,19 +2345,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.989024661573346</v>
+        <v>-0.6358951603269501</v>
       </c>
       <c r="C99">
-        <v>1.059113879758215</v>
+        <v>-0.9406443142151224</v>
       </c>
       <c r="D99">
-        <v>-1.743149487248596</v>
+        <v>0.02679052196480125</v>
       </c>
       <c r="E99">
         <v>3</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2374,19 +2365,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.8481249265406634</v>
+        <v>-0.6028281774090241</v>
       </c>
       <c r="C100">
-        <v>0.9495927967927544</v>
+        <v>-0.6192323656324781</v>
       </c>
       <c r="D100">
-        <v>-0.8252877726660957</v>
+        <v>-0.2228095224741243</v>
       </c>
       <c r="E100">
         <v>3</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2394,19 +2385,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.973156028269119</v>
+        <v>-0.6336340607627978</v>
       </c>
       <c r="C101">
-        <v>1.50690136024626</v>
+        <v>-0.7541785254064427</v>
       </c>
       <c r="D101">
-        <v>-1.748238133059149</v>
+        <v>-0.3054041143981029</v>
       </c>
       <c r="E101">
         <v>3</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2414,19 +2405,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.685785177904864</v>
+        <v>-0.4257053254257331</v>
       </c>
       <c r="C102">
-        <v>0.2996594960235937</v>
+        <v>-0.3983723278425918</v>
       </c>
       <c r="D102">
-        <v>-0.2195447358123334</v>
+        <v>-0.3043129269570061</v>
       </c>
       <c r="E102">
         <v>3</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2434,19 +2425,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.4106896157935442</v>
+        <v>-0.132249435416308</v>
       </c>
       <c r="C103">
-        <v>-0.005095768480786189</v>
+        <v>-0.3442822080776517</v>
       </c>
       <c r="D103">
-        <v>-0.6764067979855649</v>
+        <v>-0.5711089123014524</v>
       </c>
       <c r="E103">
         <v>3</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2454,19 +2445,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.4218603763177997</v>
+        <v>-0.1826533155849301</v>
       </c>
       <c r="C104">
-        <v>0.1027480794755402</v>
+        <v>-0.440605293457042</v>
       </c>
       <c r="D104">
-        <v>-0.9557546126885159</v>
+        <v>-0.5271664249066339</v>
       </c>
       <c r="E104">
         <v>3</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2474,19 +2465,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.6493016858618246</v>
+        <v>-0.3101219619384122</v>
       </c>
       <c r="C105">
-        <v>0.7118222168417006</v>
+        <v>-0.6149614215591195</v>
       </c>
       <c r="D105">
-        <v>-1.550924262181833</v>
+        <v>-0.4926014445215495</v>
       </c>
       <c r="E105">
         <v>3</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2494,19 +2485,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.8898769659404508</v>
+        <v>-0.4724692885801125</v>
       </c>
       <c r="C106">
-        <v>0.666123920101245</v>
+        <v>-0.4841279369737576</v>
       </c>
       <c r="D106">
-        <v>-0.4959246386348291</v>
+        <v>-0.2457316843020358</v>
       </c>
       <c r="E106">
         <v>3</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2514,19 +2505,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.7267456959167236</v>
+        <v>-0.6272171931292478</v>
       </c>
       <c r="C107">
-        <v>1.266929230433568</v>
+        <v>-0.5010696132283146</v>
       </c>
       <c r="D107">
-        <v>-0.3259677114945127</v>
+        <v>-0.2981671515949114</v>
       </c>
       <c r="E107">
         <v>3</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2534,19 +2525,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C108">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D108">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E108">
         <v>3</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2554,19 +2545,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.5355956511816298</v>
+        <v>-0.3701824071002948</v>
       </c>
       <c r="C109">
-        <v>0.3004889314558773</v>
+        <v>-0.3868358455693794</v>
       </c>
       <c r="D109">
-        <v>-0.5201585231187804</v>
+        <v>-0.3882631384431531</v>
       </c>
       <c r="E109">
         <v>3</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2574,19 +2565,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.6489444396050377</v>
+        <v>-0.4572337215517734</v>
       </c>
       <c r="C110">
-        <v>0.6468024793040572</v>
+        <v>-0.518339845807736</v>
       </c>
       <c r="D110">
-        <v>-0.9399754356839496</v>
+        <v>-0.3490621415376155</v>
       </c>
       <c r="E110">
         <v>3</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2594,19 +2585,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.3757168802124515</v>
+        <v>-0.2495833148107637</v>
       </c>
       <c r="C111">
-        <v>0.1429889831287892</v>
+        <v>-0.5897060255498183</v>
       </c>
       <c r="D111">
-        <v>-1.36076033048452</v>
+        <v>-0.445378639276225</v>
       </c>
       <c r="E111">
         <v>3</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2614,19 +2605,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.4604251437035988</v>
+        <v>-0.2466083001981164</v>
       </c>
       <c r="C112">
-        <v>0.2807706443356279</v>
+        <v>-0.5543465543028341</v>
       </c>
       <c r="D112">
-        <v>-1.296578392035426</v>
+        <v>-0.4807850618481242</v>
       </c>
       <c r="E112">
         <v>3</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2634,19 +2625,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-1.434433314858214</v>
+        <v>-0.9365018948632332</v>
       </c>
       <c r="C113">
-        <v>1.961278612558396</v>
+        <v>-0.7960040564668369</v>
       </c>
       <c r="D113">
-        <v>-1.595158615570478</v>
+        <v>-0.07244971830225777</v>
       </c>
       <c r="E113">
         <v>3</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2654,19 +2645,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.7147592437916908</v>
+        <v>-0.3970860122491833</v>
       </c>
       <c r="C114">
-        <v>0.2251883696352941</v>
+        <v>-0.4040572985662049</v>
       </c>
       <c r="D114">
-        <v>-0.1652457582702393</v>
+        <v>-0.2413696431527779</v>
       </c>
       <c r="E114">
         <v>3</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2674,19 +2665,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-1.239908883504902</v>
+        <v>-0.6643969238063618</v>
       </c>
       <c r="C115">
-        <v>1.483465433225129</v>
+        <v>-0.7355903379060531</v>
       </c>
       <c r="D115">
-        <v>-1.39184775287704</v>
+        <v>-0.1082924950080331</v>
       </c>
       <c r="E115">
         <v>3</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2694,19 +2685,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.7087789679191798</v>
+        <v>-0.515320705988613</v>
       </c>
       <c r="C116">
-        <v>0.9186502846439106</v>
+        <v>-0.4942781275646798</v>
       </c>
       <c r="D116">
-        <v>-0.6807219751859926</v>
+        <v>-0.3460972097920451</v>
       </c>
       <c r="E116">
         <v>4</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2714,19 +2705,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.3969926123627724</v>
+        <v>-0.1254738831940259</v>
       </c>
       <c r="C117">
-        <v>-0.0401851269326669</v>
+        <v>-0.3355731203444509</v>
       </c>
       <c r="D117">
-        <v>-0.6456688156635852</v>
+        <v>-0.5723283501332981</v>
       </c>
       <c r="E117">
         <v>4</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2734,19 +2725,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.897924928660405</v>
+        <v>-0.9056931897321941</v>
       </c>
       <c r="C118">
-        <v>2.309079142474165</v>
+        <v>-0.5403709692162498</v>
       </c>
       <c r="D118">
-        <v>0.3174319968848539</v>
+        <v>-0.2109375748414822</v>
       </c>
       <c r="E118">
         <v>4</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2754,19 +2745,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.4546621319584394</v>
+        <v>-0.1839201614548084</v>
       </c>
       <c r="C119">
-        <v>0.1603717526951133</v>
+        <v>-0.4317218322857809</v>
       </c>
       <c r="D119">
-        <v>-0.9446066273128112</v>
+        <v>-0.5385620864866518</v>
       </c>
       <c r="E119">
         <v>4</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2774,19 +2765,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.4108993787824261</v>
+        <v>-0.2741621254603048</v>
       </c>
       <c r="C120">
-        <v>-0.1197118237236411</v>
+        <v>-0.309093256660427</v>
       </c>
       <c r="D120">
-        <v>-0.3720140975587836</v>
+        <v>-0.4148082857181929</v>
       </c>
       <c r="E120">
         <v>4</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2794,19 +2785,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.7524869507484795</v>
+        <v>-0.8715471467785963</v>
       </c>
       <c r="C121">
-        <v>1.994945151373958</v>
+        <v>-0.537434507102277</v>
       </c>
       <c r="D121">
-        <v>0.362383131910513</v>
+        <v>-0.1841221164736913</v>
       </c>
       <c r="E121">
         <v>4</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2814,19 +2805,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.6235930396586293</v>
+        <v>-0.4971601451375287</v>
       </c>
       <c r="C122">
-        <v>0.7882629433649491</v>
+        <v>-0.4086224046830556</v>
       </c>
       <c r="D122">
-        <v>-0.2554524772960939</v>
+        <v>-0.3504840167003722</v>
       </c>
       <c r="E122">
         <v>4</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2834,13 +2825,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.5945389243911182</v>
+        <v>-0.4267665642355669</v>
       </c>
       <c r="C123">
-        <v>0.5669375023828538</v>
+        <v>-0.3622551899621002</v>
       </c>
       <c r="D123">
-        <v>-0.2629778909927987</v>
+        <v>-0.3858551886290915</v>
       </c>
       <c r="E123">
         <v>4</v>
@@ -2854,19 +2845,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.7745433292060613</v>
+        <v>-0.7353711018012028</v>
       </c>
       <c r="C124">
-        <v>1.654834401399874</v>
+        <v>-0.4972478465066114</v>
       </c>
       <c r="D124">
-        <v>0.03302510966608763</v>
+        <v>-0.2634893614161584</v>
       </c>
       <c r="E124">
         <v>4</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2874,19 +2865,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.5252810482149586</v>
+        <v>-0.4445562083226361</v>
       </c>
       <c r="C125">
-        <v>0.4722952160695343</v>
+        <v>-0.4375289326421798</v>
       </c>
       <c r="D125">
-        <v>-0.4764604854999995</v>
+        <v>-0.3382598873141904</v>
       </c>
       <c r="E125">
         <v>4</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2894,19 +2885,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.3969926123627724</v>
+        <v>-0.1254738831940259</v>
       </c>
       <c r="C126">
-        <v>-0.0401851269326669</v>
+        <v>-0.3355731203444509</v>
       </c>
       <c r="D126">
-        <v>-0.6456688156635852</v>
+        <v>-0.5723283501332981</v>
       </c>
       <c r="E126">
         <v>4</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2914,19 +2905,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.3695986055012287</v>
+        <v>-0.1119227787494616</v>
       </c>
       <c r="C127">
-        <v>-0.1103638438364283</v>
+        <v>-0.3181549448780491</v>
       </c>
       <c r="D127">
-        <v>-0.5841928510196261</v>
+        <v>-0.5747672257969892</v>
       </c>
       <c r="E127">
         <v>4</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2934,19 +2925,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.6188196148079355</v>
+        <v>-0.4276940779961926</v>
       </c>
       <c r="C128">
-        <v>0.1036804646862382</v>
+        <v>-0.3635204576597401</v>
       </c>
       <c r="D128">
-        <v>-0.2383695520149499</v>
+        <v>-0.285202254926865</v>
       </c>
       <c r="E128">
         <v>4</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2954,19 +2945,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.8492408955773016</v>
+        <v>-0.4827968814703221</v>
       </c>
       <c r="C129">
-        <v>0.6625236872455964</v>
+        <v>-0.4809954902420053</v>
       </c>
       <c r="D129">
-        <v>-0.5818065135201164</v>
+        <v>-0.2589436370829163</v>
       </c>
       <c r="E129">
         <v>4</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2974,13 +2965,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-1.159884548370999</v>
+        <v>-0.5296130467256186</v>
       </c>
       <c r="C130">
-        <v>0.08955935635669099</v>
+        <v>-0.718578207428701</v>
       </c>
       <c r="D130">
-        <v>0.3484570450774805</v>
+        <v>0.03893804060619199</v>
       </c>
       <c r="E130">
         <v>4</v>
@@ -2994,13 +2985,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-1.647246155872017</v>
+        <v>-0.5976215933337703</v>
       </c>
       <c r="C131">
-        <v>-0.2226219856591966</v>
+        <v>-0.987505353270963</v>
       </c>
       <c r="D131">
-        <v>1.111304503842247</v>
+        <v>0.3650717930889251</v>
       </c>
       <c r="E131">
         <v>4</v>
@@ -3014,19 +3005,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-1.1371856743019</v>
+        <v>-0.5039935749102549</v>
       </c>
       <c r="C132">
-        <v>0.7076483877064423</v>
+        <v>-0.7765559754242961</v>
       </c>
       <c r="D132">
-        <v>-0.6458342144494553</v>
+        <v>-0.01096041243761825</v>
       </c>
       <c r="E132">
         <v>4</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3034,19 +3025,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C133">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D133">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E133">
         <v>4</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3054,19 +3045,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.7211612984050912</v>
+        <v>-0.5963980645018964</v>
       </c>
       <c r="C134">
-        <v>1.187783628990564</v>
+        <v>-0.4683677490985672</v>
       </c>
       <c r="D134">
-        <v>-0.2789086447292088</v>
+        <v>-0.3188711326605633</v>
       </c>
       <c r="E134">
         <v>4</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3074,19 +3065,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-1.543854793524175</v>
+        <v>-0.5277909614618446</v>
       </c>
       <c r="C135">
-        <v>0.9954880231291974</v>
+        <v>-1.109188779860714</v>
       </c>
       <c r="D135">
-        <v>-0.8182547011308281</v>
+        <v>0.241209860052195</v>
       </c>
       <c r="E135">
         <v>4</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3094,19 +3085,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-0.3562568650365203</v>
+        <v>-0.1801196238451735</v>
       </c>
       <c r="C136">
-        <v>-0.01249926696360609</v>
+        <v>-0.4583722157995642</v>
       </c>
       <c r="D136">
-        <v>-0.9780505834399253</v>
+        <v>-0.5043751017465982</v>
       </c>
       <c r="E136">
         <v>4</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3114,19 +3105,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.6194629754953376</v>
+        <v>-0.4851135284145422</v>
       </c>
       <c r="C137">
-        <v>0.7658149684889726</v>
+        <v>-0.3760333880118996</v>
       </c>
       <c r="D137">
-        <v>-0.1424173458852329</v>
+        <v>-0.3629387427622188</v>
       </c>
       <c r="E137">
         <v>4</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3134,19 +3125,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-1.019572595077891</v>
+        <v>-0.553831573576654</v>
       </c>
       <c r="C138">
-        <v>0.9356549115529691</v>
+        <v>-0.610377552967226</v>
       </c>
       <c r="D138">
-        <v>-0.8647936337895175</v>
+        <v>-0.2531981322946311</v>
       </c>
       <c r="E138">
         <v>4</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3154,19 +3145,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-0.5101065563327331</v>
+        <v>-0.3058001354046029</v>
       </c>
       <c r="C139">
-        <v>0.1007604281252895</v>
+        <v>-0.3425443803053164</v>
       </c>
       <c r="D139">
-        <v>-0.5193926233275854</v>
+        <v>-0.4214063826458369</v>
       </c>
       <c r="E139">
         <v>4</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3174,19 +3165,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C140">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D140">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E140">
         <v>4</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3194,19 +3185,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C141">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D141">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E141">
         <v>4</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3214,19 +3205,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C142">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D142">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E142">
         <v>4</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3234,19 +3225,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C143">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D143">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E143">
         <v>4</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3254,19 +3245,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C144">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D144">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E144">
         <v>4</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3274,19 +3265,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C145">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D145">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E145">
         <v>4</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3294,19 +3285,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C146">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D146">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E146">
         <v>4</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3314,19 +3305,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C147">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D147">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E147">
         <v>4</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3334,19 +3325,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C148">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D148">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E148">
         <v>4</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3354,19 +3345,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C149">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D149">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E149">
         <v>4</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3374,19 +3365,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C150">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D150">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E150">
         <v>4</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3394,19 +3385,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C151">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D151">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E151">
         <v>4</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3414,19 +3405,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C152">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D152">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E152">
         <v>4</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3434,19 +3425,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C153">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D153">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E153">
         <v>4</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3454,19 +3445,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C154">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D154">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E154">
         <v>4</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3474,13 +3465,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.8391606751899565</v>
+        <v>-0.4435803214768634</v>
       </c>
       <c r="C155">
-        <v>0.04655298029149718</v>
+        <v>-0.4554460321337917</v>
       </c>
       <c r="D155">
-        <v>0.2394380359288107</v>
+        <v>-0.1445809194095026</v>
       </c>
       <c r="E155">
         <v>5</v>
@@ -3494,19 +3485,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.6459266987031758</v>
+        <v>-0.6429054138190968</v>
       </c>
       <c r="C156">
-        <v>1.205740058996325</v>
+        <v>-0.4775911469622555</v>
       </c>
       <c r="D156">
-        <v>-0.07322938201263013</v>
+        <v>-0.2727371429647931</v>
       </c>
       <c r="E156">
         <v>5</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3514,19 +3505,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-1.105908461022678</v>
+        <v>-0.7915862661870596</v>
       </c>
       <c r="C157">
-        <v>0.66173312056711</v>
+        <v>-0.2724899778272387</v>
       </c>
       <c r="D157">
-        <v>-0.7336163813665044</v>
+        <v>-0.2467338452485931</v>
       </c>
       <c r="E157">
         <v>5</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3534,19 +3525,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.6008418592768504</v>
+        <v>-0.3935163787902864</v>
       </c>
       <c r="C158">
-        <v>0.4588869832521809</v>
+        <v>-0.3983112049284508</v>
       </c>
       <c r="D158">
-        <v>-0.5587404749458429</v>
+        <v>-0.3940636934142627</v>
       </c>
       <c r="E158">
         <v>5</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3554,19 +3545,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.4683591353892111</v>
+        <v>-0.1906957136770905</v>
       </c>
       <c r="C159">
-        <v>0.195461111146994</v>
+        <v>-0.4404309200189818</v>
       </c>
       <c r="D159">
-        <v>-0.9753446096347909</v>
+        <v>-0.5373426486548062</v>
       </c>
       <c r="E159">
         <v>5</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3574,19 +3565,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.4218603763177997</v>
+        <v>-0.1826533155849301</v>
       </c>
       <c r="C160">
-        <v>0.1027480794755402</v>
+        <v>-0.440605293457042</v>
       </c>
       <c r="D160">
-        <v>-0.9557546126885159</v>
+        <v>-0.5271664249066339</v>
       </c>
       <c r="E160">
         <v>5</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3594,19 +3585,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0.6053291696969294</v>
+        <v>-0.2584512358999118</v>
       </c>
       <c r="C161">
-        <v>0.5463546956658012</v>
+        <v>-0.5275217973509904</v>
       </c>
       <c r="D161">
-        <v>-1.282724432854587</v>
+        <v>-0.5251482703363501</v>
       </c>
       <c r="E161">
         <v>5</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3614,19 +3605,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.4546621319584394</v>
+        <v>-0.1839201614548084</v>
       </c>
       <c r="C162">
-        <v>0.1603717526951133</v>
+        <v>-0.4317218322857809</v>
       </c>
       <c r="D162">
-        <v>-0.9446066273128112</v>
+        <v>-0.5385620864866518</v>
       </c>
       <c r="E162">
         <v>5</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3634,19 +3625,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0.6753460538797147</v>
+        <v>-0.5630229062443518</v>
       </c>
       <c r="C163">
-        <v>1.05646808915036</v>
+        <v>-0.4093055109849931</v>
       </c>
       <c r="D163">
-        <v>-0.07504145193372608</v>
+        <v>-0.3353554935056192</v>
       </c>
       <c r="E163">
         <v>5</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3654,19 +3645,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.6847442064186231</v>
+        <v>-0.469710946197286</v>
       </c>
       <c r="C164">
-        <v>0.7756194078803496</v>
+        <v>-0.4500995097592084</v>
       </c>
       <c r="D164">
-        <v>-0.6139800107492424</v>
+        <v>-0.3709911989909234</v>
       </c>
       <c r="E164">
         <v>5</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3674,19 +3665,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.7340026520476177</v>
+        <v>-0.4033560810891834</v>
       </c>
       <c r="C165">
-        <v>0.2564523103882888</v>
+        <v>-0.3998627269488689</v>
       </c>
       <c r="D165">
-        <v>-0.2547136401808421</v>
+        <v>-0.3116525312873974</v>
       </c>
       <c r="E165">
         <v>5</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3694,19 +3685,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-1.239878726849641</v>
+        <v>-0.820933612720667</v>
       </c>
       <c r="C166">
-        <v>1.943958511636032</v>
+        <v>-1.050124738779155</v>
       </c>
       <c r="D166">
-        <v>-2.518035281724992</v>
+        <v>-0.1398371342128297</v>
       </c>
       <c r="E166">
         <v>5</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3714,19 +3705,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.4027556241079318</v>
+        <v>-0.1881620219373339</v>
       </c>
       <c r="C167">
-        <v>0.08021376470784775</v>
+        <v>-0.458197842361504</v>
       </c>
       <c r="D167">
-        <v>-0.9976405803862003</v>
+        <v>-0.5145513254947705</v>
       </c>
       <c r="E167">
         <v>5</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3734,19 +3725,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.4106896157935442</v>
+        <v>-0.132249435416308</v>
       </c>
       <c r="C168">
-        <v>-0.005095768480786189</v>
+        <v>-0.3442822080776517</v>
       </c>
       <c r="D168">
-        <v>-0.6764067979855649</v>
+        <v>-0.5711089123014524</v>
       </c>
       <c r="E168">
         <v>5</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3754,19 +3745,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.4106896157935442</v>
+        <v>-0.132249435416308</v>
       </c>
       <c r="C169">
-        <v>-0.005095768480786189</v>
+        <v>-0.3442822080776517</v>
       </c>
       <c r="D169">
-        <v>-0.6764067979855649</v>
+        <v>-0.5711089123014524</v>
       </c>
       <c r="E169">
         <v>5</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3774,19 +3765,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.8553178322763646</v>
+        <v>-0.6511090868067969</v>
       </c>
       <c r="C170">
-        <v>1.357395183561121</v>
+        <v>-0.7974964305548334</v>
       </c>
       <c r="D170">
-        <v>-1.761737648982342</v>
+        <v>-0.2514667391053981</v>
       </c>
       <c r="E170">
         <v>5</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3794,19 +3785,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.9657009620317867</v>
+        <v>-0.6544259226042924</v>
       </c>
       <c r="C171">
-        <v>1.152053182945098</v>
+        <v>-0.7927507192000738</v>
       </c>
       <c r="D171">
-        <v>-1.54042950471091</v>
+        <v>-0.1366478331085719</v>
       </c>
       <c r="E171">
         <v>5</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3814,19 +3805,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.5368441525430703</v>
+        <v>-0.2245734747885011</v>
       </c>
       <c r="C172">
-        <v>0.3709079034063976</v>
+        <v>-0.4839763586849861</v>
       </c>
       <c r="D172">
-        <v>-1.129034521244689</v>
+        <v>-0.5312454594955781</v>
       </c>
       <c r="E172">
         <v>5</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3834,19 +3825,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.4737668841683073</v>
+        <v>-0.1784114551024046</v>
       </c>
       <c r="C173">
-        <v>0.1829060674628057</v>
+        <v>-0.4141292833813189</v>
       </c>
       <c r="D173">
-        <v>-0.9027206596151269</v>
+        <v>-0.5511771858985153</v>
       </c>
       <c r="E173">
         <v>5</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3854,19 +3845,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.5094501456815266</v>
+        <v>-0.2110223703439369</v>
       </c>
       <c r="C174">
-        <v>0.3007291865026361</v>
+        <v>-0.4665581832185843</v>
       </c>
       <c r="D174">
-        <v>-1.06755855660073</v>
+        <v>-0.5336843351592694</v>
       </c>
       <c r="E174">
         <v>5</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3874,13 +3865,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.6106436999270493</v>
+        <v>-0.4212818561936097</v>
       </c>
       <c r="C175">
-        <v>0.5687259167235077</v>
+        <v>-0.3731001588150095</v>
       </c>
       <c r="D175">
-        <v>-0.3507096816817752</v>
+        <v>-0.3904714174311795</v>
       </c>
       <c r="E175">
         <v>5</v>
@@ -3894,19 +3885,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.4110448787596075</v>
+        <v>-0.207221832734302</v>
       </c>
       <c r="C176">
-        <v>0.1278581668439168</v>
+        <v>-0.4932085667323677</v>
       </c>
       <c r="D176">
-        <v>-1.101002512727844</v>
+        <v>-0.4994973504192157</v>
       </c>
       <c r="E176">
         <v>5</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3914,19 +3905,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.7215012682720059</v>
+        <v>-0.5132249446841803</v>
       </c>
       <c r="C177">
-        <v>0.8392003416712066</v>
+        <v>-0.6548089190877928</v>
       </c>
       <c r="D177">
-        <v>-1.452117139664863</v>
+        <v>-0.310799272220264</v>
       </c>
       <c r="E177">
         <v>5</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3934,19 +3925,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.56964590818371</v>
+        <v>-0.2258403206583794</v>
       </c>
       <c r="C178">
-        <v>0.4285315766259707</v>
+        <v>-0.475092897513725</v>
       </c>
       <c r="D178">
-        <v>-1.117886535868984</v>
+        <v>-0.542641121075596</v>
       </c>
       <c r="E178">
         <v>5</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3954,19 +3945,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.3832956089320005</v>
+        <v>-0.1186983309717437</v>
       </c>
       <c r="C179">
-        <v>-0.07527448538454762</v>
+        <v>-0.32686403261125</v>
       </c>
       <c r="D179">
-        <v>-0.6149308333416057</v>
+        <v>-0.5735477879651436</v>
       </c>
       <c r="E179">
         <v>5</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3974,19 +3965,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.5754089199288694</v>
+        <v>-0.2885284594016875</v>
       </c>
       <c r="C180">
-        <v>0.5489304682664853</v>
+        <v>-0.5977176195307781</v>
       </c>
       <c r="D180">
-        <v>-1.469858300591599</v>
+        <v>-0.4848640964370684</v>
       </c>
       <c r="E180">
         <v>6</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3994,19 +3985,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.424386619224316</v>
+        <v>-0.1390249876385901</v>
       </c>
       <c r="C181">
-        <v>0.02999358997109453</v>
+        <v>-0.3529912958108525</v>
       </c>
       <c r="D181">
-        <v>-0.7071447803075446</v>
+        <v>-0.5698894744696068</v>
       </c>
       <c r="E181">
         <v>6</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4014,19 +4005,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-1.657798205045471</v>
+        <v>-1.239850664591587</v>
       </c>
       <c r="C182">
-        <v>2.6887621963197</v>
+        <v>-1.29665102625361</v>
       </c>
       <c r="D182">
-        <v>-2.971925999952597</v>
+        <v>0.1755257086569464</v>
       </c>
       <c r="E182">
         <v>6</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4034,19 +4025,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.8305994993005013</v>
+        <v>-0.5045206075177279</v>
       </c>
       <c r="C183">
-        <v>1.36113725786111</v>
+        <v>-0.9384182817539735</v>
       </c>
       <c r="D183">
-        <v>-2.551099629471155</v>
+        <v>-0.376248678506056</v>
       </c>
       <c r="E183">
         <v>6</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4054,13 +4045,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-0.4697533075156488</v>
+        <v>-0.3570809276286725</v>
       </c>
       <c r="C184">
-        <v>0.1889387449806696</v>
+        <v>-0.3440951708475974</v>
       </c>
       <c r="D184">
-        <v>-0.2977287757006933</v>
+        <v>-0.3853684300232305</v>
       </c>
       <c r="E184">
         <v>6</v>
@@ -4074,19 +4065,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.6639556103528851</v>
+        <v>-0.7222663014895601</v>
       </c>
       <c r="C185">
-        <v>1.458621199694851</v>
+        <v>-0.4858867289227841</v>
       </c>
       <c r="D185">
-        <v>0.1564821802943228</v>
+        <v>-0.2394489883369074</v>
       </c>
       <c r="E185">
         <v>6</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4094,19 +4085,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.6925034401536865</v>
+        <v>-0.4439988955702896</v>
       </c>
       <c r="C186">
-        <v>0.6738191603870228</v>
+        <v>-0.5171877293040457</v>
       </c>
       <c r="D186">
-        <v>-1.028996211229072</v>
+        <v>-0.3684159235087747</v>
       </c>
       <c r="E186">
         <v>6</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4114,19 +4105,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-1.190800316027849</v>
+        <v>-0.7831585260003593</v>
       </c>
       <c r="C187">
-        <v>1.522748402068694</v>
+        <v>-0.9195980132842638</v>
       </c>
       <c r="D187">
-        <v>-1.86809954865658</v>
+        <v>-0.008606211381535167</v>
       </c>
       <c r="E187">
         <v>6</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4134,19 +4125,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.8576382254062491</v>
+        <v>-0.6539490944895723</v>
       </c>
       <c r="C188">
-        <v>1.315848882297547</v>
+        <v>-0.8901342385888869</v>
       </c>
       <c r="D188">
-        <v>-2.186856448789571</v>
+        <v>-0.2277359745949164</v>
       </c>
       <c r="E188">
         <v>6</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4154,19 +4145,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.4027556241079318</v>
+        <v>-0.1881620219373339</v>
       </c>
       <c r="C189">
-        <v>0.08021376470784775</v>
+        <v>-0.458197842361504</v>
       </c>
       <c r="D189">
-        <v>-0.9976405803862003</v>
+        <v>-0.5145513254947705</v>
       </c>
       <c r="E189">
         <v>6</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4174,19 +4165,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.567032343231191</v>
+        <v>-0.4108803962148604</v>
       </c>
       <c r="C190">
-        <v>0.384870266083269</v>
+        <v>-0.527344964621282</v>
       </c>
       <c r="D190">
-        <v>-1.062794610613833</v>
+        <v>-0.3438031055731999</v>
       </c>
       <c r="E190">
         <v>6</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4194,19 +4185,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.855333200094518</v>
+        <v>-0.7247163037603588</v>
       </c>
       <c r="C191">
-        <v>1.713275120453001</v>
+        <v>-0.5508936217441186</v>
       </c>
       <c r="D191">
-        <v>-0.3424215502958737</v>
+        <v>-0.2790638929981382</v>
       </c>
       <c r="E191">
         <v>6</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4214,19 +4205,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C192">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D192">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E192">
         <v>6</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4234,19 +4225,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.7397729610981312</v>
+        <v>-0.369835086069073</v>
       </c>
       <c r="C193">
-        <v>0.9700027696890539</v>
+        <v>-0.7022266723291886</v>
       </c>
       <c r="D193">
-        <v>-1.838714088455355</v>
+        <v>-0.4702308424549211</v>
       </c>
       <c r="E193">
         <v>6</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4254,19 +4245,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.4600698807375354</v>
+        <v>-0.1716359028801224</v>
       </c>
       <c r="C194">
-        <v>0.147816709010925</v>
+        <v>-0.405420195648118</v>
       </c>
       <c r="D194">
-        <v>-0.8719826772931473</v>
+        <v>-0.5523966237303609</v>
       </c>
       <c r="E194">
         <v>6</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4274,19 +4265,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.5833429116144818</v>
+        <v>-0.2326158728806616</v>
       </c>
       <c r="C195">
-        <v>0.4636209350778514</v>
+        <v>-0.4838019852469258</v>
       </c>
       <c r="D195">
-        <v>-1.148624518190964</v>
+        <v>-0.5414216832437504</v>
       </c>
       <c r="E195">
         <v>6</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4294,19 +4285,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.5180946632992658</v>
+        <v>-0.3050545784588989</v>
       </c>
       <c r="C196">
-        <v>0.4813275239634081</v>
+        <v>-0.6504952662441641</v>
       </c>
       <c r="D196">
-        <v>-1.595516203684652</v>
+        <v>-0.4470187982014779</v>
       </c>
       <c r="E196">
         <v>6</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4314,19 +4305,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.6814802020368755</v>
+        <v>-0.4417318252527099</v>
       </c>
       <c r="C197">
-        <v>0.6549275051737729</v>
+        <v>-0.5100354536635141</v>
       </c>
       <c r="D197">
-        <v>-0.9920397437911672</v>
+        <v>-0.3679644155460936</v>
       </c>
       <c r="E197">
         <v>6</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4334,19 +4325,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.6268569693213731</v>
+        <v>-0.6096775662642528</v>
       </c>
       <c r="C198">
-        <v>1.034612131823706</v>
+        <v>-0.5577744582549548</v>
       </c>
       <c r="D198">
-        <v>-0.5480960627472611</v>
+        <v>-0.2623739448105248</v>
       </c>
       <c r="E198">
         <v>6</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4354,19 +4345,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C199">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D199">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E199">
         <v>6</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4374,19 +4365,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.783681883049486</v>
+        <v>-0.5643200992594481</v>
       </c>
       <c r="C200">
-        <v>0.6233834117674888</v>
+        <v>-0.5390282910011435</v>
       </c>
       <c r="D200">
-        <v>-0.891643805209287</v>
+        <v>-0.2441452184485137</v>
       </c>
       <c r="E200">
         <v>6</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4394,19 +4385,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-1.600966075244544</v>
+        <v>-1.066802532941235</v>
       </c>
       <c r="C201">
-        <v>2.490457564958123</v>
+        <v>-0.9719100688906119</v>
       </c>
       <c r="D201">
-        <v>-2.345901225366552</v>
+        <v>-0.02132907375149795</v>
       </c>
       <c r="E201">
         <v>6</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4414,13 +4405,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-0.5475392707281858</v>
+        <v>-0.3689188820704371</v>
       </c>
       <c r="C202">
-        <v>0.3275282734661197</v>
+        <v>-0.3643397496026858</v>
       </c>
       <c r="D202">
-        <v>-0.4323338317046325</v>
+        <v>-0.3980131415224637</v>
       </c>
       <c r="E202">
         <v>6</v>
@@ -4434,19 +4425,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.4492543831793433</v>
+        <v>-0.1962044200294943</v>
       </c>
       <c r="C203">
-        <v>0.1729267963793016</v>
+        <v>-0.4580234689234437</v>
       </c>
       <c r="D203">
-        <v>-1.017230577332475</v>
+        <v>-0.5247275492429427</v>
       </c>
       <c r="E203">
         <v>6</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4454,19 +4445,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>-0.9602218321986791</v>
+        <v>-0.8849778893188848</v>
       </c>
       <c r="C204">
-        <v>2.020216127753237</v>
+        <v>-1.099317463156297</v>
       </c>
       <c r="D204">
-        <v>-2.43628919423764</v>
+        <v>-0.09957810301761827</v>
       </c>
       <c r="E204">
         <v>7</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4474,19 +4465,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.7311061854081182</v>
+        <v>-0.5254279961756095</v>
       </c>
       <c r="C205">
-        <v>0.3696929401098882</v>
+        <v>-0.3829842762579914</v>
       </c>
       <c r="D205">
-        <v>-0.1996606947278515</v>
+        <v>-0.2365653316861248</v>
       </c>
       <c r="E205">
         <v>7</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4494,19 +4485,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-2.652092327820458</v>
+        <v>-1.829434315542998</v>
       </c>
       <c r="C206">
-        <v>3.174461533354262</v>
+        <v>-1.032995698263703</v>
       </c>
       <c r="D206">
-        <v>-3.424182205575428</v>
+        <v>0.2738292072475762</v>
       </c>
       <c r="E206">
         <v>7</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4514,19 +4505,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-0.8082402709533374</v>
+        <v>-0.7156720208004868</v>
       </c>
       <c r="C207">
-        <v>1.616962599172963</v>
+        <v>-0.5507220369393636</v>
       </c>
       <c r="D207">
-        <v>-0.324213438930916</v>
+        <v>-0.2692589905376385</v>
       </c>
       <c r="E207">
         <v>7</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4534,19 +4525,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-3.003876791069749</v>
+        <v>-2.185330887655546</v>
       </c>
       <c r="C208">
-        <v>2.408210072020858</v>
+        <v>-0.4258728568562677</v>
       </c>
       <c r="D208">
-        <v>-2.658658861191904</v>
+        <v>0.2038721349691841</v>
       </c>
       <c r="E208">
         <v>7</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4554,19 +4545,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-2.530602860989799</v>
+        <v>-1.81998057195883</v>
       </c>
       <c r="C209">
-        <v>5.741514793537933</v>
+        <v>-2.471994508110634</v>
       </c>
       <c r="D209">
-        <v>-7.019576833814043</v>
+        <v>0.5180292306398644</v>
       </c>
       <c r="E209">
         <v>7</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4574,19 +4565,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.7376019811576782</v>
+        <v>-0.488435811333407</v>
       </c>
       <c r="C210">
-        <v>1.175711194518202</v>
+        <v>-0.938767028630094</v>
       </c>
       <c r="D210">
-        <v>-2.511919635578605</v>
+        <v>-0.3558962310097115</v>
       </c>
       <c r="E210">
         <v>7</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4594,19 +4585,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-1.478178152580361</v>
+        <v>-0.9232219997556076</v>
       </c>
       <c r="C211">
-        <v>2.012348896054803</v>
+        <v>-0.930781982324127</v>
       </c>
       <c r="D211">
-        <v>-1.837527924724853</v>
+        <v>-0.04485193869442838</v>
       </c>
       <c r="E211">
         <v>7</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4614,19 +4605,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-1.692672625766248</v>
+        <v>-0.9870739076764458</v>
       </c>
       <c r="C212">
-        <v>2.882106028425477</v>
+        <v>-1.35329403212864</v>
       </c>
       <c r="D212">
-        <v>-3.207104297534133</v>
+        <v>0.07278617977762336</v>
       </c>
       <c r="E212">
         <v>7</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4634,19 +4625,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.5311684272644488</v>
+        <v>-0.4421731481256005</v>
       </c>
       <c r="C213">
-        <v>0.4018984975277879</v>
+        <v>-0.5631618472530207</v>
       </c>
       <c r="D213">
-        <v>-1.07851765299167</v>
+        <v>-0.3097666698141587</v>
       </c>
       <c r="E213">
         <v>8</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4654,19 +4645,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>-0.38905862067716</v>
+        <v>-0.1813864697150518</v>
       </c>
       <c r="C214">
-        <v>0.04512440625596703</v>
+        <v>-0.4494887546283031</v>
       </c>
       <c r="D214">
-        <v>-0.9669025980642206</v>
+        <v>-0.5157707633266161</v>
       </c>
       <c r="E214">
         <v>8</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4674,19 +4665,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.3778878601529045</v>
+        <v>-0.1309825895464297</v>
       </c>
       <c r="C215">
-        <v>-0.06271944170035931</v>
+        <v>-0.3531656692489128</v>
       </c>
       <c r="D215">
-        <v>-0.6875547833612696</v>
+        <v>-0.5597132507214345</v>
       </c>
       <c r="E215">
         <v>8</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4694,19 +4685,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.4522232502374652</v>
+        <v>-0.4232980012994078</v>
       </c>
       <c r="C216">
-        <v>0.2588584422092842</v>
+        <v>-0.5120580430408531</v>
       </c>
       <c r="D216">
-        <v>-0.8239680376702869</v>
+        <v>-0.3077200779384091</v>
       </c>
       <c r="E216">
         <v>8</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4714,19 +4705,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.62695818152259</v>
+        <v>-0.4313983585325232</v>
       </c>
       <c r="C217">
-        <v>0.5640687187161075</v>
+        <v>-0.4746200337036714</v>
       </c>
       <c r="D217">
-        <v>-0.8058755210203264</v>
+        <v>-0.3653355544450159</v>
       </c>
       <c r="E217">
         <v>8</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4734,19 +4725,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-0.4737668841683073</v>
+        <v>-0.1784114551024046</v>
       </c>
       <c r="C218">
-        <v>0.1829060674628057</v>
+        <v>-0.4141292833813189</v>
       </c>
       <c r="D218">
-        <v>-0.9027206596151269</v>
+        <v>-0.5511771858985153</v>
       </c>
       <c r="E218">
         <v>8</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4754,19 +4745,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.4355573797485714</v>
+        <v>-0.1894288678072122</v>
       </c>
       <c r="C219">
-        <v>0.1378374379274209</v>
+        <v>-0.4493143811902429</v>
       </c>
       <c r="D219">
-        <v>-0.9864925950104955</v>
+        <v>-0.5259469870747884</v>
       </c>
       <c r="E219">
         <v>8</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4774,19 +4765,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.4791746329474033</v>
+        <v>-0.1661271965277186</v>
       </c>
       <c r="C220">
-        <v>0.1703510237786174</v>
+        <v>-0.387827646743656</v>
       </c>
       <c r="D220">
-        <v>-0.830096709595463</v>
+        <v>-0.5650117231422244</v>
       </c>
       <c r="E220">
         <v>8</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4794,13 +4785,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.540378138064874</v>
+        <v>-0.3731640633929831</v>
       </c>
       <c r="C221">
-        <v>0.3320333007086697</v>
+        <v>-0.3594362025404542</v>
       </c>
       <c r="D221">
-        <v>-0.386395107988169</v>
+        <v>-0.3951480451899109</v>
       </c>
       <c r="E221">
         <v>8</v>
@@ -4814,19 +4805,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.3670723625947124</v>
+        <v>-0.1555511066958016</v>
       </c>
       <c r="C222">
-        <v>-0.0376093543319827</v>
+        <v>-0.4057689425242386</v>
       </c>
       <c r="D222">
-        <v>-0.8328026834005975</v>
+        <v>-0.5320441762340163</v>
       </c>
       <c r="E222">
         <v>8</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4834,19 +4825,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-0.8677396897488237</v>
+        <v>-0.7076421574989291</v>
       </c>
       <c r="C223">
-        <v>0.9944296965624313</v>
+        <v>-0.6747433758541654</v>
       </c>
       <c r="D223">
-        <v>-1.246701751459616</v>
+        <v>-0.1526014237172432</v>
       </c>
       <c r="E223">
         <v>8</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4854,19 +4845,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.5474790525770116</v>
+        <v>-0.3902201044545279</v>
       </c>
       <c r="C224">
-        <v>0.3724787236275694</v>
+        <v>-0.3937550104256872</v>
       </c>
       <c r="D224">
-        <v>-0.4925208114924459</v>
+        <v>-0.3808367126897013</v>
       </c>
       <c r="E224">
         <v>8</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4874,19 +4865,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>-0.5202656432397188</v>
+        <v>-0.186453853194565</v>
       </c>
       <c r="C225">
-        <v>0.2756190991342595</v>
+        <v>-0.4139549099432586</v>
       </c>
       <c r="D225">
-        <v>-0.9223106565614018</v>
+        <v>-0.5613534096466876</v>
       </c>
       <c r="E225">
         <v>8</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4894,19 +4885,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.6005679293450794</v>
+        <v>-0.5062234451478167</v>
       </c>
       <c r="C226">
-        <v>0.736835041373226</v>
+        <v>-0.4843008429521141</v>
       </c>
       <c r="D226">
-        <v>-0.5517373622324913</v>
+        <v>-0.3205715515621036</v>
       </c>
       <c r="E226">
         <v>8</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4914,19 +4905,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.8229221659607524</v>
+        <v>-0.5466008131589827</v>
       </c>
       <c r="C227">
-        <v>0.8579403290465022</v>
+        <v>-0.5454857285345207</v>
       </c>
       <c r="D227">
-        <v>-0.7997078589015888</v>
+        <v>-0.2827317100892946</v>
       </c>
       <c r="E227">
         <v>8</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4934,19 +4925,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.6745539707562829</v>
+        <v>-0.4790135484792836</v>
       </c>
       <c r="C228">
-        <v>0.7566300823117456</v>
+        <v>-0.5038007894257963</v>
       </c>
       <c r="D228">
-        <v>-0.8203673758995176</v>
+        <v>-0.3502717550004565</v>
       </c>
       <c r="E228">
         <v>8</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4954,19 +4945,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>-0.6292593091803358</v>
+        <v>-0.4184840806276838</v>
       </c>
       <c r="C229">
-        <v>0.414947553261693</v>
+        <v>-0.395621920154675</v>
       </c>
       <c r="D229">
-        <v>-0.6368214523136624</v>
+        <v>-0.3669773569334062</v>
       </c>
       <c r="E229">
         <v>8</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4974,19 +4965,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.5450732459728437</v>
+        <v>-0.3912459876326863</v>
       </c>
       <c r="C230">
-        <v>0.3553323128091155</v>
+        <v>-0.4225384864258739</v>
       </c>
       <c r="D230">
-        <v>-0.6207566842977905</v>
+        <v>-0.3724665207922532</v>
       </c>
       <c r="E230">
         <v>8</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4994,19 +4985,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.3559016020704569</v>
+        <v>-0.1051472265271795</v>
       </c>
       <c r="C231">
-        <v>-0.145453202288309</v>
+        <v>-0.3094458571448482</v>
       </c>
       <c r="D231">
-        <v>-0.5534548686976465</v>
+        <v>-0.5759866636288349</v>
       </c>
       <c r="E231">
         <v>8</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5014,19 +5005,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.5245141604146357</v>
+        <v>-0.377982182080725</v>
       </c>
       <c r="C232">
-        <v>0.2761003714743964</v>
+        <v>-0.4400181878717443</v>
       </c>
       <c r="D232">
-        <v>-0.7286187166410305</v>
+        <v>-0.3681006763841952</v>
       </c>
       <c r="E232">
         <v>8</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5034,19 +5025,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-1.462499871887437</v>
+        <v>-0.957198021644955</v>
       </c>
       <c r="C233">
-        <v>1.500435165340433</v>
+        <v>-0.5351557617725666</v>
       </c>
       <c r="D233">
-        <v>-1.24149354074822</v>
+        <v>-0.1528580094944407</v>
       </c>
       <c r="E233">
         <v>8</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5054,19 +5045,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.658540505197609</v>
+        <v>-0.4469292344020641</v>
       </c>
       <c r="C234">
-        <v>0.6621923152640766</v>
+        <v>-0.4642926078983326</v>
       </c>
       <c r="D234">
-        <v>-0.7349699561149912</v>
+        <v>-0.370152906815755</v>
       </c>
       <c r="E234">
         <v>8</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5074,19 +5065,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.3832956089320005</v>
+        <v>-0.1186983309717437</v>
       </c>
       <c r="C235">
-        <v>-0.07527448538454762</v>
+        <v>-0.32686403261125</v>
       </c>
       <c r="D235">
-        <v>-0.6149308333416057</v>
+        <v>-0.5735477879651436</v>
       </c>
       <c r="E235">
         <v>8</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5094,19 +5085,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.8349040803113233</v>
+        <v>-0.5540024387676959</v>
       </c>
       <c r="C236">
-        <v>0.7732634593149297</v>
+        <v>-0.5717666593115747</v>
       </c>
       <c r="D236">
-        <v>-1.022457545049343</v>
+        <v>-0.2458386792467202</v>
       </c>
       <c r="E236">
         <v>8</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5114,19 +5105,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.9174894600510328</v>
+        <v>-0.6021815546380224</v>
       </c>
       <c r="C237">
-        <v>0.884025474939572</v>
+        <v>-0.4413760097829562</v>
       </c>
       <c r="D237">
-        <v>-0.6666894593175643</v>
+        <v>-0.2378215668681531</v>
       </c>
       <c r="E237">
         <v>8</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5134,19 +5125,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.3695986055012287</v>
+        <v>-0.1119227787494616</v>
       </c>
       <c r="C238">
-        <v>-0.1103638438364283</v>
+        <v>-0.3181549448780491</v>
       </c>
       <c r="D238">
-        <v>-0.5841928510196261</v>
+        <v>-0.5747672257969892</v>
       </c>
       <c r="E238">
         <v>8</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5154,19 +5145,19 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-1.110639954430298</v>
+        <v>-0.65803028641035</v>
       </c>
       <c r="C239">
-        <v>1.270188176736555</v>
+        <v>-0.6402422713253878</v>
       </c>
       <c r="D239">
-        <v>-1.150872685234727</v>
+        <v>-0.2448623475971752</v>
       </c>
       <c r="E239">
         <v>8</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5174,19 +5165,19 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.4052818670144481</v>
+        <v>-0.1445336939909939</v>
       </c>
       <c r="C240">
-        <v>0.007459275203402116</v>
+        <v>-0.3705838447153146</v>
       </c>
       <c r="D240">
-        <v>-0.7490307480052288</v>
+        <v>-0.5572743750577434</v>
       </c>
       <c r="E240">
         <v>8</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5194,19 +5185,19 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.8224157709669655</v>
+        <v>-0.5159144290691169</v>
       </c>
       <c r="C241">
-        <v>0.8202062436987212</v>
+        <v>-0.5167255039572931</v>
       </c>
       <c r="D241">
-        <v>-0.8517887674471202</v>
+        <v>-0.316224838903488</v>
       </c>
       <c r="E241">
         <v>9</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5214,19 +5205,19 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.3616646138156163</v>
+        <v>-0.1678353652704875</v>
       </c>
       <c r="C242">
-        <v>-0.0250543106477944</v>
+        <v>-0.4320705791619014</v>
       </c>
       <c r="D242">
-        <v>-0.9054266334202614</v>
+        <v>-0.5182096389903073</v>
       </c>
       <c r="E242">
         <v>9</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5234,19 +5225,19 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-0.5175607683099428</v>
+        <v>-0.4090629508702227</v>
       </c>
       <c r="C243">
-        <v>0.3246071412985729</v>
+        <v>-0.4948701897253701</v>
       </c>
       <c r="D243">
-        <v>-0.8648843604017997</v>
+        <v>-0.3380180135269051</v>
       </c>
       <c r="E243">
         <v>9</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5254,19 +5245,19 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.6206863384629406</v>
+        <v>-0.4483807442427177</v>
       </c>
       <c r="C244">
-        <v>0.624420335301215</v>
+        <v>-0.4393160668857677</v>
       </c>
       <c r="D244">
-        <v>-0.5726342877595465</v>
+        <v>-0.3644480014444686</v>
       </c>
       <c r="E244">
         <v>9</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5274,19 +5265,19 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.7699168737822972</v>
+        <v>-0.620789060853508</v>
       </c>
       <c r="C245">
-        <v>0.7932572910483237</v>
+        <v>-0.6004479844500011</v>
       </c>
       <c r="D245">
-        <v>-1.237406023635087</v>
+        <v>-0.2310850640328219</v>
       </c>
       <c r="E245">
         <v>9</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5294,19 +5285,19 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-0.4533785330499294</v>
+        <v>-0.452803947855998</v>
       </c>
       <c r="C246">
-        <v>0.3642036789016994</v>
+        <v>-0.4810785542581417</v>
       </c>
       <c r="D246">
-        <v>-0.5734532346430479</v>
+        <v>-0.3021910088419545</v>
       </c>
       <c r="E246">
         <v>9</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5314,19 +5305,19 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.6331678409300741</v>
+        <v>-0.4469515722925005</v>
       </c>
       <c r="C247">
-        <v>0.5991149072221305</v>
+        <v>-0.5084199042246813</v>
       </c>
       <c r="D247">
-        <v>-0.9140740528965785</v>
+        <v>-0.3515812038763152</v>
       </c>
       <c r="E247">
         <v>9</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5334,19 +5325,19 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>-0.9562582029207849</v>
+        <v>-0.6553591777091682</v>
       </c>
       <c r="C248">
-        <v>0.9286179385468865</v>
+        <v>-0.5154903848003991</v>
       </c>
       <c r="D248">
-        <v>-0.7421782347525749</v>
+        <v>-0.1867257342525044</v>
       </c>
       <c r="E248">
         <v>9</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5354,19 +5345,19 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.6874643566578156</v>
+        <v>-0.6160971455026126</v>
       </c>
       <c r="C249">
-        <v>1.225655431217475</v>
+        <v>-0.4148935586658148</v>
       </c>
       <c r="D249">
-        <v>0.0783299038677937</v>
+        <v>-0.3131015035390834</v>
       </c>
       <c r="E249">
         <v>9</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5374,19 +5365,19 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-0.5765642596706055</v>
+        <v>-0.4443458856214039</v>
       </c>
       <c r="C250">
-        <v>0.5461052620640997</v>
+        <v>-0.4408742732950895</v>
       </c>
       <c r="D250">
-        <v>-0.5475167484880048</v>
+        <v>-0.3527864925456059</v>
       </c>
       <c r="E250">
         <v>9</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5394,19 +5385,19 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.6762392744853596</v>
+        <v>-0.5532913564598384</v>
       </c>
       <c r="C251">
-        <v>1.011419968633557</v>
+        <v>-0.4407438054691113</v>
       </c>
       <c r="D251">
-        <v>-0.2581983047340924</v>
+        <v>-0.3322639863105958</v>
       </c>
       <c r="E251">
         <v>9</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5414,13 +5405,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.5776070429036904</v>
+        <v>-0.3869784684197038</v>
       </c>
       <c r="C252">
-        <v>0.4139046936085118</v>
+        <v>-0.3833147371617568</v>
       </c>
       <c r="D252">
-        <v>-0.4875913112326667</v>
+        <v>-0.3939033200642458</v>
       </c>
       <c r="E252">
         <v>9</v>
@@ -5434,19 +5425,19 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.6301969336519566</v>
+        <v>-0.315630668290816</v>
       </c>
       <c r="C253">
-        <v>0.6892879020740081</v>
+        <v>-0.6325539704635816</v>
       </c>
       <c r="D253">
-        <v>-1.592810229879518</v>
+        <v>-0.479986345109686</v>
       </c>
       <c r="E253">
         <v>9</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5454,19 +5445,19 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.4517806260858597</v>
+        <v>-0.1525760920831544</v>
       </c>
       <c r="C254">
-        <v>0.100172306874856</v>
+        <v>-0.3704094712772543</v>
       </c>
       <c r="D254">
-        <v>-0.7686207449515037</v>
+        <v>-0.5674505988059156</v>
       </c>
       <c r="E254">
         <v>9</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5474,19 +5465,19 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-0.7333318826113979</v>
+        <v>-0.7576468899025381</v>
       </c>
       <c r="C255">
-        <v>1.639467226367132</v>
+        <v>-0.5299511049530112</v>
       </c>
       <c r="D255">
-        <v>0.004865097056398482</v>
+        <v>-0.2327948172461706</v>
       </c>
       <c r="E255">
         <v>9</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5494,19 +5485,19 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.6963285572781293</v>
+        <v>-0.5004820782037442</v>
       </c>
       <c r="C256">
-        <v>0.8962568101774302</v>
+        <v>-0.4259263383742132</v>
       </c>
       <c r="D256">
-        <v>-0.401803560741225</v>
+        <v>-0.3662849591448223</v>
       </c>
       <c r="E256">
         <v>9</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5514,19 +5505,19 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-0.6660159814959452</v>
+        <v>-0.5900961355630029</v>
       </c>
       <c r="C257">
-        <v>1.090576900540198</v>
+        <v>-0.4627736798673572</v>
       </c>
       <c r="D257">
-        <v>-0.2168346380197629</v>
+        <v>-0.3067581157990196</v>
       </c>
       <c r="E257">
         <v>9</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5534,19 +5525,19 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.4052818670144481</v>
+        <v>-0.1445336939909939</v>
       </c>
       <c r="C258">
-        <v>0.007459275203402116</v>
+        <v>-0.3705838447153146</v>
       </c>
       <c r="D258">
-        <v>-0.7490307480052288</v>
+        <v>-0.5572743750577434</v>
       </c>
       <c r="E258">
         <v>9</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5554,19 +5545,19 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.594923850003696</v>
+        <v>-0.4909129857277076</v>
       </c>
       <c r="C259">
-        <v>0.3784672350261211</v>
+        <v>-0.4101354050635997</v>
       </c>
       <c r="D259">
-        <v>-0.4934053155090465</v>
+        <v>-0.28481332584305</v>
       </c>
       <c r="E259">
         <v>9</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5574,19 +5565,19 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-0.7798530035720919</v>
+        <v>-0.5231607700653972</v>
       </c>
       <c r="C260">
-        <v>0.7395420243471278</v>
+        <v>-0.5795903461451848</v>
       </c>
       <c r="D260">
-        <v>-1.06921568137606</v>
+        <v>-0.2837613789622067</v>
       </c>
       <c r="E260">
         <v>9</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5594,19 +5585,19 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.424386619224316</v>
+        <v>-0.1390249876385901</v>
       </c>
       <c r="C261">
-        <v>0.02999358997109453</v>
+        <v>-0.3529912958108525</v>
       </c>
       <c r="D261">
-        <v>-0.7071447803075446</v>
+        <v>-0.5698894744696068</v>
       </c>
       <c r="E261">
         <v>9</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5614,13 +5605,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-0.547680896632657</v>
+        <v>-0.4507588231797225</v>
       </c>
       <c r="C262">
-        <v>0.5678225309982382</v>
+        <v>-0.3607524879818589</v>
       </c>
       <c r="D262">
-        <v>-0.1190361354526541</v>
+        <v>-0.3612227219555075</v>
       </c>
       <c r="E262">
         <v>9</v>
@@ -5634,19 +5625,19 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.3641908567221327</v>
+        <v>-0.1242070373241475</v>
       </c>
       <c r="C263">
-        <v>-0.09780880015224003</v>
+        <v>-0.344456581515712</v>
       </c>
       <c r="D263">
-        <v>-0.6568168010392901</v>
+        <v>-0.5609326885532802</v>
       </c>
       <c r="E263">
         <v>9</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5654,19 +5645,19 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.6091622057546089</v>
+        <v>-0.3963083898521687</v>
       </c>
       <c r="C264">
-        <v>0.4588324828426849</v>
+        <v>-0.4340739774477614</v>
       </c>
       <c r="D264">
-        <v>-0.7246237579797503</v>
+        <v>-0.386330670123332</v>
       </c>
       <c r="E264">
         <v>9</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5674,19 +5665,19 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-0.7343924300724074</v>
+        <v>-0.5146317787439612</v>
       </c>
       <c r="C265">
-        <v>0.9275831777922376</v>
+        <v>-0.5415777854225307</v>
       </c>
       <c r="D265">
-        <v>-0.9315732777462437</v>
+        <v>-0.342237772727857</v>
       </c>
       <c r="E265">
         <v>9</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5694,19 +5685,19 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.6115680123587768</v>
+        <v>-0.3952825066740103</v>
       </c>
       <c r="C266">
-        <v>0.4759788936611387</v>
+        <v>-0.4052905014475747</v>
       </c>
       <c r="D266">
-        <v>-0.5963878851744058</v>
+        <v>-0.39470086202078</v>
       </c>
       <c r="E266">
         <v>9</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5714,19 +5705,19 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-0.4081633728870279</v>
+        <v>-0.175877763362648</v>
       </c>
       <c r="C267">
-        <v>0.06765872102365944</v>
+        <v>-0.4318962057238411</v>
       </c>
       <c r="D267">
-        <v>-0.9250166303665364</v>
+        <v>-0.5283858627384795</v>
       </c>
       <c r="E267">
         <v>9</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5734,19 +5725,19 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.457543637831019</v>
+        <v>-0.2152642308264624</v>
       </c>
       <c r="C268">
-        <v>0.2205711985153706</v>
+        <v>-0.4930341932943074</v>
       </c>
       <c r="D268">
-        <v>-1.120592509674119</v>
+        <v>-0.509673574167388</v>
       </c>
       <c r="E268">
         <v>9</v>
       </c>
       <c r="F268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5754,19 +5745,19 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.6700705344089143</v>
+        <v>-0.4652984575343702</v>
       </c>
       <c r="C269">
-        <v>0.6764381029335649</v>
+        <v>-0.5622927686960244</v>
       </c>
       <c r="D269">
-        <v>-1.138669529411812</v>
+        <v>-0.340666662346348</v>
       </c>
       <c r="E269">
         <v>9</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5774,19 +5765,19 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>-0.6633539522586598</v>
+        <v>-0.3918699114786883</v>
       </c>
       <c r="C270">
-        <v>0.8798655106182842</v>
+        <v>-0.7725968679470365</v>
       </c>
       <c r="D270">
-        <v>-2.006257959246092</v>
+        <v>-0.4197704448074672</v>
       </c>
       <c r="E270">
         <v>9</v>
       </c>
       <c r="F270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5794,19 +5785,19 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.5382693417765865</v>
+        <v>-0.4592291891871453</v>
       </c>
       <c r="C271">
-        <v>0.4423439204466877</v>
+        <v>-0.5974806551382535</v>
       </c>
       <c r="D271">
-        <v>-1.184643356495947</v>
+        <v>-0.2954553373139491</v>
       </c>
       <c r="E271">
         <v>9</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5814,19 +5805,19 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.575053656962806</v>
+        <v>-0.2135560620836935</v>
       </c>
       <c r="C272">
-        <v>0.4159765329417824</v>
+        <v>-0.4487912608760621</v>
       </c>
       <c r="D272">
-        <v>-1.04526258584932</v>
+        <v>-0.5564756583193051</v>
       </c>
       <c r="E272">
         <v>9</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5834,19 +5825,19 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>-0.8145277117653535</v>
+        <v>-0.5660642811148692</v>
       </c>
       <c r="C273">
-        <v>1.025356374473767</v>
+        <v>-0.5718466728029843</v>
       </c>
       <c r="D273">
-        <v>-1.137077150937053</v>
+        <v>-0.3124327118950256</v>
       </c>
       <c r="E273">
         <v>9</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
